--- a/tut05/output/0401ME32.xlsx
+++ b/tut05/output/0401ME32.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.448979591836735</v>
+        <v>6.45</v>
       </c>
       <c r="C6" t="n">
-        <v>6.477272727272728</v>
+        <v>6.48</v>
       </c>
       <c r="D6" t="n">
-        <v>8.148936170212766</v>
+        <v>8.15</v>
       </c>
       <c r="E6" t="n">
-        <v>7.877551020408164</v>
+        <v>7.88</v>
       </c>
       <c r="F6" t="n">
-        <v>6.869565217391305</v>
+        <v>6.87</v>
       </c>
       <c r="G6" t="n">
-        <v>6.956521739130435</v>
+        <v>6.96</v>
       </c>
       <c r="H6" t="n">
         <v>7.7</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.448979591836735</v>
+        <v>6.45</v>
       </c>
       <c r="C8" t="n">
-        <v>6.462365591397849</v>
+        <v>6.46</v>
       </c>
       <c r="D8" t="n">
-        <v>7.028571428571428</v>
+        <v>7.03</v>
       </c>
       <c r="E8" t="n">
-        <v>7.248677248677248</v>
+        <v>7.25</v>
       </c>
       <c r="F8" t="n">
-        <v>7.174468085106383</v>
+        <v>7.17</v>
       </c>
       <c r="G8" t="n">
-        <v>7.138790035587188</v>
+        <v>7.14</v>
       </c>
       <c r="H8" t="n">
-        <v>7.208722741433021</v>
+        <v>7.21</v>
       </c>
       <c r="I8" t="n">
-        <v>7.218836565096953</v>
+        <v>7.22</v>
       </c>
     </row>
   </sheetData>
